--- a/Fielding.xlsx
+++ b/Fielding.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yogya\Desktop\IPL Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9890504-E1C1-42E2-9E71-6F4BBC08A618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3BFB8D-C0A8-4DB2-973E-1FFCFDFBEED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2420" yWindow="2420" windowWidth="14400" windowHeight="7270" xr2:uid="{86D6A778-9856-4B27-ADBB-20D3E15BCEE4}"/>
+    <workbookView xWindow="1760" yWindow="2770" windowWidth="14400" windowHeight="7270" xr2:uid="{86D6A778-9856-4B27-ADBB-20D3E15BCEE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -234,9 +234,6 @@
     <t>MS Dhoni</t>
   </si>
   <si>
-    <t>Mukesh Chaudhary</t>
-  </si>
-  <si>
     <t>K L Rahul</t>
   </si>
   <si>
@@ -288,9 +285,6 @@
     <t>Arshad Khan</t>
   </si>
   <si>
-    <t>Faf Du Plesis</t>
-  </si>
-  <si>
     <t>Sunil Narine</t>
   </si>
   <si>
@@ -483,10 +477,16 @@
     <t>Urvil Patel</t>
   </si>
   <si>
-    <t>Vyshak Vijaykumar</t>
-  </si>
-  <si>
     <t>Hardik Pandya</t>
+  </si>
+  <si>
+    <t>Mukesh Choudhary</t>
+  </si>
+  <si>
+    <t>Vijaykumar Vyshak</t>
+  </si>
+  <si>
+    <t>Faf du Plessis</t>
   </si>
 </sst>
 </file>
@@ -841,9 +841,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC677F1C-8919-474B-B6AD-0F10246D1B8B}">
   <dimension ref="A1:H166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D168" sqref="D168"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -1766,7 +1766,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="B36" t="s">
         <v>25</v>
@@ -1775,7 +1775,7 @@
         <v>17</v>
       </c>
       <c r="D36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E36" t="s">
         <v>29</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
         <v>35</v>
@@ -1818,7 +1818,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B38" t="s">
         <v>35</v>
@@ -1827,7 +1827,7 @@
         <v>18</v>
       </c>
       <c r="D38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E38" t="s">
         <v>16</v>
@@ -1844,7 +1844,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B39" t="s">
         <v>16</v>
@@ -1853,7 +1853,7 @@
         <v>18</v>
       </c>
       <c r="D39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E39" t="s">
         <v>35</v>
@@ -1870,7 +1870,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
@@ -1896,7 +1896,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
@@ -1948,7 +1948,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B43" t="s">
         <v>25</v>
@@ -1957,7 +1957,7 @@
         <v>22</v>
       </c>
       <c r="D43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E43" t="s">
         <v>35</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B44" t="s">
         <v>25</v>
@@ -2000,7 +2000,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="B45" t="s">
         <v>25</v>
@@ -2026,7 +2026,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B46" t="s">
         <v>25</v>
@@ -2035,7 +2035,7 @@
         <v>22</v>
       </c>
       <c r="D46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E46" t="s">
         <v>35</v>
@@ -2052,7 +2052,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B47" t="s">
         <v>35</v>
@@ -2061,7 +2061,7 @@
         <v>22</v>
       </c>
       <c r="D47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E47" t="s">
         <v>25</v>
@@ -2078,7 +2078,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B48" t="s">
         <v>35</v>
@@ -2087,7 +2087,7 @@
         <v>22</v>
       </c>
       <c r="D48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E48" t="s">
         <v>25</v>
@@ -2104,7 +2104,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B49" t="s">
         <v>35</v>
@@ -2130,7 +2130,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B50" t="s">
         <v>35</v>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B51" t="s">
         <v>16</v>
@@ -2208,7 +2208,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B53" t="s">
         <v>33</v>
@@ -2234,7 +2234,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="B54" t="s">
         <v>29</v>
@@ -2269,7 +2269,7 @@
         <v>24</v>
       </c>
       <c r="D55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E55" t="s">
         <v>29</v>
@@ -2286,7 +2286,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
@@ -2295,7 +2295,7 @@
         <v>25</v>
       </c>
       <c r="D56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E56" t="s">
         <v>25</v>
@@ -2321,7 +2321,7 @@
         <v>25</v>
       </c>
       <c r="D57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E57" t="s">
         <v>25</v>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B58" t="s">
         <v>25</v>
@@ -2364,7 +2364,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B59" t="s">
         <v>25</v>
@@ -2373,7 +2373,7 @@
         <v>25</v>
       </c>
       <c r="D59" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E59" t="s">
         <v>7</v>
@@ -2390,7 +2390,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B60" t="s">
         <v>31</v>
@@ -2416,7 +2416,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B61" t="s">
         <v>33</v>
@@ -2425,7 +2425,7 @@
         <v>26</v>
       </c>
       <c r="D61" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E61" t="s">
         <v>31</v>
@@ -2442,7 +2442,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B62" t="s">
         <v>35</v>
@@ -2451,7 +2451,7 @@
         <v>27</v>
       </c>
       <c r="D62" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E62" t="s">
         <v>14</v>
@@ -2468,7 +2468,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B63" t="s">
         <v>8</v>
@@ -2477,7 +2477,7 @@
         <v>28</v>
       </c>
       <c r="D63" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E63" t="s">
         <v>16</v>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B65" t="s">
         <v>8</v>
@@ -2529,7 +2529,7 @@
         <v>28</v>
       </c>
       <c r="D65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E65" t="s">
         <v>16</v>
@@ -2546,7 +2546,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B66" t="s">
         <v>16</v>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B67" t="s">
         <v>16</v>
@@ -2624,7 +2624,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B69" t="s">
         <v>16</v>
@@ -2633,7 +2633,7 @@
         <v>28</v>
       </c>
       <c r="D69" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E69" t="s">
         <v>8</v>
@@ -2650,7 +2650,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B70" t="s">
         <v>29</v>
@@ -2676,7 +2676,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B71" t="s">
         <v>29</v>
@@ -2685,7 +2685,7 @@
         <v>29</v>
       </c>
       <c r="D71" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E71" t="s">
         <v>27</v>
@@ -2702,7 +2702,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B72" t="s">
         <v>29</v>
@@ -2728,7 +2728,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B73" t="s">
         <v>27</v>
@@ -2754,7 +2754,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B74" t="s">
         <v>25</v>
@@ -2763,7 +2763,7 @@
         <v>30</v>
       </c>
       <c r="D74" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E74" t="s">
         <v>31</v>
@@ -2780,7 +2780,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B75" t="s">
         <v>31</v>
@@ -2832,7 +2832,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B77" t="s">
         <v>16</v>
@@ -2841,7 +2841,7 @@
         <v>32</v>
       </c>
       <c r="D77" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E77" t="s">
         <v>29</v>
@@ -2858,7 +2858,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B78" t="s">
         <v>16</v>
@@ -2867,7 +2867,7 @@
         <v>32</v>
       </c>
       <c r="D78" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E78" t="s">
         <v>29</v>
@@ -2884,7 +2884,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B79" t="s">
         <v>29</v>
@@ -2910,7 +2910,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B80" t="s">
         <v>29</v>
@@ -2945,7 +2945,7 @@
         <v>32</v>
       </c>
       <c r="D81" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E81" t="s">
         <v>16</v>
@@ -2962,7 +2962,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B82" t="s">
         <v>27</v>
@@ -2971,7 +2971,7 @@
         <v>33</v>
       </c>
       <c r="D82" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E82" t="s">
         <v>14</v>
@@ -2988,7 +2988,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B83" t="s">
         <v>27</v>
@@ -3023,7 +3023,7 @@
         <v>33</v>
       </c>
       <c r="D84" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E84" t="s">
         <v>27</v>
@@ -3049,7 +3049,7 @@
         <v>35</v>
       </c>
       <c r="D85" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E85" t="s">
         <v>29</v>
@@ -3066,7 +3066,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B86" t="s">
         <v>29</v>
@@ -3092,7 +3092,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B87" t="s">
         <v>16</v>
@@ -3118,7 +3118,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B88" t="s">
         <v>31</v>
@@ -3127,7 +3127,7 @@
         <v>36</v>
       </c>
       <c r="D88" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E88" t="s">
         <v>16</v>
@@ -3144,7 +3144,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B89" t="s">
         <v>31</v>
@@ -3153,7 +3153,7 @@
         <v>36</v>
       </c>
       <c r="D89" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E89" t="s">
         <v>16</v>
@@ -3170,7 +3170,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B90" t="s">
         <v>8</v>
@@ -3179,7 +3179,7 @@
         <v>37</v>
       </c>
       <c r="D90" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E90" t="s">
         <v>35</v>
@@ -3196,7 +3196,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B91" t="s">
         <v>27</v>
@@ -3222,7 +3222,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B92" t="s">
         <v>25</v>
@@ -3248,7 +3248,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B93" t="s">
         <v>25</v>
@@ -3257,7 +3257,7 @@
         <v>38</v>
       </c>
       <c r="D93" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E93" t="s">
         <v>27</v>
@@ -3283,7 +3283,7 @@
         <v>38</v>
       </c>
       <c r="D94" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E94" t="s">
         <v>27</v>
@@ -3300,7 +3300,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B95" t="s">
         <v>7</v>
@@ -3326,7 +3326,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B96" t="s">
         <v>7</v>
@@ -3352,7 +3352,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B97" t="s">
         <v>33</v>
@@ -3404,7 +3404,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B99" t="s">
         <v>29</v>
@@ -3413,7 +3413,7 @@
         <v>40</v>
       </c>
       <c r="D99" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E99" t="s">
         <v>31</v>
@@ -3430,7 +3430,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B100" t="s">
         <v>29</v>
@@ -3439,7 +3439,7 @@
         <v>40</v>
       </c>
       <c r="D100" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E100" t="s">
         <v>31</v>
@@ -3456,7 +3456,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B101" t="s">
         <v>31</v>
@@ -3482,7 +3482,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B102" t="s">
         <v>31</v>
@@ -3491,7 +3491,7 @@
         <v>40</v>
       </c>
       <c r="D102" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E102" t="s">
         <v>29</v>
@@ -3517,7 +3517,7 @@
         <v>41</v>
       </c>
       <c r="D103" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E103" t="s">
         <v>14</v>
@@ -3560,7 +3560,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B105" t="s">
         <v>16</v>
@@ -3586,7 +3586,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B106" t="s">
         <v>16</v>
@@ -3595,7 +3595,7 @@
         <v>42</v>
       </c>
       <c r="D106" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E106" t="s">
         <v>8</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B107" t="s">
         <v>14</v>
@@ -3621,7 +3621,7 @@
         <v>43</v>
       </c>
       <c r="D107" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E107" t="s">
         <v>25</v>
@@ -3647,7 +3647,7 @@
         <v>44</v>
       </c>
       <c r="D108" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E108" t="s">
         <v>35</v>
@@ -3664,7 +3664,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B109" t="s">
         <v>7</v>
@@ -3699,7 +3699,7 @@
         <v>46</v>
       </c>
       <c r="D110" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E110" t="s">
         <v>8</v>
@@ -3716,7 +3716,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B111" t="s">
         <v>29</v>
@@ -3725,7 +3725,7 @@
         <v>46</v>
       </c>
       <c r="D111" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E111" t="s">
         <v>8</v>
@@ -3768,7 +3768,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B113" t="s">
         <v>16</v>
@@ -3777,7 +3777,7 @@
         <v>47</v>
       </c>
       <c r="D113" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E113" t="s">
         <v>33</v>
@@ -3820,7 +3820,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B115" t="s">
         <v>33</v>
@@ -3829,7 +3829,7 @@
         <v>47</v>
       </c>
       <c r="D115" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E115" t="s">
         <v>16</v>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B116" t="s">
         <v>25</v>
@@ -3855,7 +3855,7 @@
         <v>49</v>
       </c>
       <c r="D116" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E116" t="s">
         <v>35</v>
@@ -3872,7 +3872,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B117" t="s">
         <v>27</v>
@@ -3881,7 +3881,7 @@
         <v>50</v>
       </c>
       <c r="D117" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E117" t="s">
         <v>16</v>
@@ -3898,7 +3898,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B118" t="s">
         <v>27</v>
@@ -3907,7 +3907,7 @@
         <v>50</v>
       </c>
       <c r="D118" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E118" t="s">
         <v>16</v>
@@ -3933,7 +3933,7 @@
         <v>50</v>
       </c>
       <c r="D119" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E119" t="s">
         <v>16</v>
@@ -3950,7 +3950,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B120" t="s">
         <v>14</v>
@@ -4011,7 +4011,7 @@
         <v>51</v>
       </c>
       <c r="D122" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E122" t="s">
         <v>14</v>
@@ -4028,7 +4028,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B123" t="s">
         <v>25</v>
@@ -4037,7 +4037,7 @@
         <v>52</v>
       </c>
       <c r="D123" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E123" t="s">
         <v>8</v>
@@ -4054,7 +4054,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B124" t="s">
         <v>25</v>
@@ -4063,7 +4063,7 @@
         <v>52</v>
       </c>
       <c r="D124" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E124" t="s">
         <v>8</v>
@@ -4080,7 +4080,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B125" t="s">
         <v>8</v>
@@ -4089,7 +4089,7 @@
         <v>52</v>
       </c>
       <c r="D125" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E125" t="s">
         <v>25</v>
@@ -4106,7 +4106,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B126" t="s">
         <v>8</v>
@@ -4115,7 +4115,7 @@
         <v>52</v>
       </c>
       <c r="D126" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E126" t="s">
         <v>25</v>
@@ -4132,7 +4132,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B127" t="s">
         <v>8</v>
@@ -4141,7 +4141,7 @@
         <v>52</v>
       </c>
       <c r="D127" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E127" t="s">
         <v>25</v>
@@ -4158,7 +4158,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B128" t="s">
         <v>8</v>
@@ -4167,7 +4167,7 @@
         <v>52</v>
       </c>
       <c r="D128" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E128" t="s">
         <v>25</v>
@@ -4184,7 +4184,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B129" t="s">
         <v>8</v>
@@ -4193,7 +4193,7 @@
         <v>52</v>
       </c>
       <c r="D129" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E129" t="s">
         <v>25</v>
@@ -4210,7 +4210,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B130" t="s">
         <v>16</v>
@@ -4245,7 +4245,7 @@
         <v>54</v>
       </c>
       <c r="D131" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E131" t="s">
         <v>35</v>
@@ -4271,7 +4271,7 @@
         <v>54</v>
       </c>
       <c r="D132" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E132" t="s">
         <v>31</v>
@@ -4297,7 +4297,7 @@
         <v>56</v>
       </c>
       <c r="D133" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E133" t="s">
         <v>27</v>
@@ -4314,7 +4314,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B134" t="s">
         <v>33</v>
@@ -4340,7 +4340,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B135" t="s">
         <v>33</v>
@@ -4349,7 +4349,7 @@
         <v>56</v>
       </c>
       <c r="D135" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E135" t="s">
         <v>27</v>
@@ -4366,7 +4366,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B136" t="s">
         <v>33</v>
@@ -4401,7 +4401,7 @@
         <v>56</v>
       </c>
       <c r="D137" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E137" t="s">
         <v>33</v>
@@ -4418,7 +4418,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B138" t="s">
         <v>25</v>
@@ -4427,7 +4427,7 @@
         <v>57</v>
       </c>
       <c r="D138" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E138" t="s">
         <v>7</v>
@@ -4444,7 +4444,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B139" t="s">
         <v>25</v>
@@ -4453,7 +4453,7 @@
         <v>57</v>
       </c>
       <c r="D139" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E139" t="s">
         <v>7</v>
@@ -4496,7 +4496,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B141" t="s">
         <v>16</v>
@@ -4522,7 +4522,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B142" t="s">
         <v>16</v>
@@ -4531,7 +4531,7 @@
         <v>59</v>
       </c>
       <c r="D142" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E142" t="s">
         <v>35</v>
@@ -4548,7 +4548,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B143" t="s">
         <v>16</v>
@@ -4557,7 +4557,7 @@
         <v>59</v>
       </c>
       <c r="D143" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E143" t="s">
         <v>35</v>
@@ -4574,7 +4574,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B144" t="s">
         <v>33</v>
@@ -4583,7 +4583,7 @@
         <v>60</v>
       </c>
       <c r="D144" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E144" t="s">
         <v>29</v>
@@ -4600,7 +4600,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B145" t="s">
         <v>27</v>
@@ -4609,7 +4609,7 @@
         <v>63</v>
       </c>
       <c r="D145" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E145" t="s">
         <v>29</v>
@@ -4626,7 +4626,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B146" t="s">
         <v>27</v>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B148" t="s">
         <v>33</v>
@@ -4756,7 +4756,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B151" t="s">
         <v>31</v>
@@ -4765,7 +4765,7 @@
         <v>64</v>
       </c>
       <c r="D151" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E151" t="s">
         <v>33</v>
@@ -4782,7 +4782,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B152" t="s">
         <v>8</v>
@@ -4791,7 +4791,7 @@
         <v>65</v>
       </c>
       <c r="D152" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E152" t="s">
         <v>14</v>
@@ -4808,7 +4808,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B153" t="s">
         <v>8</v>
@@ -4834,7 +4834,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B154" t="s">
         <v>29</v>
@@ -4843,7 +4843,7 @@
         <v>66</v>
       </c>
       <c r="D154" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E154" t="s">
         <v>35</v>
@@ -4860,7 +4860,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B155" t="s">
         <v>29</v>
@@ -4886,7 +4886,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B156" t="s">
         <v>29</v>
@@ -4895,7 +4895,7 @@
         <v>66</v>
       </c>
       <c r="D156" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E156" t="s">
         <v>35</v>
@@ -4912,7 +4912,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B157" t="s">
         <v>29</v>
@@ -4921,7 +4921,7 @@
         <v>66</v>
       </c>
       <c r="D157" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E157" t="s">
         <v>35</v>
@@ -4938,7 +4938,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B158" t="s">
         <v>29</v>
@@ -4947,7 +4947,7 @@
         <v>66</v>
       </c>
       <c r="D158" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E158" t="s">
         <v>35</v>
@@ -4964,7 +4964,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B159" t="s">
         <v>35</v>
@@ -4973,7 +4973,7 @@
         <v>66</v>
       </c>
       <c r="D159" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E159" t="s">
         <v>29</v>
@@ -4990,7 +4990,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B160" t="s">
         <v>35</v>
@@ -4999,7 +4999,7 @@
         <v>66</v>
       </c>
       <c r="D160" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E160" t="s">
         <v>29</v>
@@ -5016,7 +5016,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B161" t="s">
         <v>33</v>
@@ -5025,7 +5025,7 @@
         <v>67</v>
       </c>
       <c r="D161" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E161" t="s">
         <v>25</v>
@@ -5051,7 +5051,7 @@
         <v>68</v>
       </c>
       <c r="D162" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E162" t="s">
         <v>7</v>
@@ -5068,7 +5068,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B163" t="s">
         <v>14</v>
@@ -5103,7 +5103,7 @@
         <v>69</v>
       </c>
       <c r="D164" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E164" t="s">
         <v>27</v>
@@ -5120,7 +5120,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B165" t="s">
         <v>35</v>
@@ -5155,7 +5155,7 @@
         <v>69</v>
       </c>
       <c r="D166" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E166" t="s">
         <v>35</v>
